--- a/src/input_file.xlsx
+++ b/src/input_file.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="58">
   <si>
     <t xml:space="preserve">Tab name</t>
   </si>
@@ -108,9 +108,6 @@
   </si>
   <si>
     <t xml:space="preserve">Alternate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contains</t>
   </si>
   <si>
     <t xml:space="preserve">Consequence</t>
@@ -297,6 +294,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="relations" displayName="relations" ref="A2:A6" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <tableColumns count="1">
+    <tableColumn id="1" name="Equals"/>
+  </tableColumns>
+</table>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -305,13 +310,15 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.7040816326531"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.1632653061224"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -500,12 +507,12 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D2:D11" type="list">
-      <formula1>"Equals,Greater,Greater than,Less,Less than,Contains"</formula1>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C2:C11" type="list">
+      <formula1>Sheet2!$D$2:$D$36</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C2:C11" type="list">
-      <formula1>Sheet2!$D$2:$D$36</formula1>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D2:D11" type="list">
+      <formula1>"Equals,Greater,Greater than,Less,Less than"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -527,12 +534,12 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -584,41 +591,38 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="D7" s="0" t="s">
         <v>29</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D11" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D12" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D13" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -628,112 +632,112 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D15" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D16" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D18" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D19" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D20" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D21" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D22" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D23" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D24" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D25" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D26" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D27" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D28" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D29" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D30" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D31" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D32" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D33" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D34" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D35" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D36" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -744,5 +748,8 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <tableParts>
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/src/input_file.xlsx
+++ b/src/input_file.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="61">
   <si>
     <t xml:space="preserve">Tab name</t>
   </si>
@@ -95,6 +95,24 @@
     <t xml:space="preserve">Filter 31</t>
   </si>
   <si>
+    <t xml:space="preserve">Allele Count East Asian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filter 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annotation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intron, synonymous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allele Number Latino</t>
+  </si>
+  <si>
     <t xml:space="preserve">Relation values:</t>
   </si>
   <si>
@@ -122,9 +140,6 @@
     <t xml:space="preserve">Filter</t>
   </si>
   <si>
-    <t xml:space="preserve">Annotation</t>
-  </si>
-  <si>
     <t xml:space="preserve">Flags</t>
   </si>
   <si>
@@ -146,9 +161,6 @@
     <t xml:space="preserve">Homozygote Count African</t>
   </si>
   <si>
-    <t xml:space="preserve">Allele Count East Asian</t>
-  </si>
-  <si>
     <t xml:space="preserve">Allele Number East Asian</t>
   </si>
   <si>
@@ -171,9 +183,6 @@
   </si>
   <si>
     <t xml:space="preserve">Allele Count Latino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allele Number Latino</t>
   </si>
   <si>
     <t xml:space="preserve">Homozygote Count Latino</t>
@@ -307,18 +316,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.1632653061224"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.3520408163265"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -505,13 +512,64 @@
         <v>23686</v>
       </c>
     </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C2:C11" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C2:C14" type="list">
       <formula1>Sheet2!$D$2:$D$36</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D2:D11" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D2:D14" type="list">
       <formula1>"Equals,Greater,Greater than,Less,Less than"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -539,15 +597,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -571,12 +629,12 @@
         <v>9</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>13</v>
@@ -587,42 +645,42 @@
         <v>16</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D11" s="0" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D12" s="0" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D13" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -632,112 +690,112 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D15" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D16" s="0" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D18" s="0" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D19" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D20" s="0" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D21" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D22" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D23" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D24" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D25" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D26" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D27" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D28" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D29" s="0" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D30" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D31" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D32" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D33" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D34" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D35" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D36" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
